--- a/acordon1.xlsx
+++ b/acordon1.xlsx
@@ -591,16 +591,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.426</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -658,10 +658,10 @@
         <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>100</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.852</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="8">
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>33.33</v>
+        <v>66.67</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
